--- a/biology/Médecine/Walking_Ghost_Phase/Walking_Ghost_Phase.xlsx
+++ b/biology/Médecine/Walking_Ghost_Phase/Walking_Ghost_Phase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-La walking ghost phase (littéralement en anglais : la « période du fantôme qui marche ») est un intermède de « bonne » santé apparente, pouvant durer quelques jours, dans le cadre d'un syndrome d'irradiation aiguë de 10 à 50 Sv. Cette période aboutit au décès du sujet[1].
+La walking ghost phase (littéralement en anglais : la « période du fantôme qui marche ») est un intermède de « bonne » santé apparente, pouvant durer quelques jours, dans le cadre d'un syndrome d'irradiation aiguë de 10 à 50 Sv. Cette période aboutit au décès du sujet.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes peuvent aller de tremblements, indépendants de la volonté du sujet, jusqu'aux nausées et vomissements à répétition.
 </t>
@@ -543,7 +557,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les traitements médicaux actuels ne sont que des palliatifs, notamment pour aider le sujet à lutter contre la douleur.
 </t>
